--- a/data/колонки ДПО.xlsx
+++ b/data/колонки ДПО.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1\PycharmProjects\Lindy\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{114D3E18-8A9F-48DC-83D6-3E6D5E2C9350}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B404F4B9-1E6E-48C4-87EB-F2A40E00630F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{314937F8-DAA5-4F18-AFB6-C301EA5B7BB1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{314937F8-DAA5-4F18-AFB6-C301EA5B7BB1}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
   <si>
     <t>Порядковый_номер_группы</t>
   </si>
@@ -230,6 +230,12 @@
   </si>
   <si>
     <t>Номер_приказа_об_отчислении</t>
+  </si>
+  <si>
+    <t>Текущий_возраст</t>
+  </si>
+  <si>
+    <t>Возрастная_категория</t>
   </si>
 </sst>
 </file>
@@ -819,15 +825,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C90B2480-60AC-4F1E-A70F-F1FA6824F9EF}">
-  <dimension ref="A1:BM1"/>
+  <dimension ref="A1:BO1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="AD2" sqref="AD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:65" s="23" customFormat="1" ht="236.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:67" s="23" customFormat="1" ht="236.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -913,140 +919,146 @@
         <v>27</v>
       </c>
       <c r="AC1" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD1" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE1" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="11" t="s">
+      <c r="AF1" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="13" t="s">
+      <c r="AG1" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="13" t="s">
+      <c r="AH1" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="13" t="s">
+      <c r="AI1" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="14" t="s">
+      <c r="AJ1" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="15" t="s">
+      <c r="AK1" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="16" t="s">
+      <c r="AL1" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="16" t="s">
+      <c r="AM1" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="16" t="s">
+      <c r="AN1" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="16" t="s">
+      <c r="AO1" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="15" t="s">
+      <c r="AP1" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="15" t="s">
+      <c r="AQ1" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="15" t="s">
+      <c r="AR1" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="17" t="s">
+      <c r="AS1" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="18" t="s">
+      <c r="AT1" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="18" t="s">
+      <c r="AU1" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="18" t="s">
+      <c r="AV1" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="18" t="s">
+      <c r="AW1" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="11" t="s">
+      <c r="AX1" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="18" t="s">
+      <c r="AY1" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" s="18" t="s">
+      <c r="AZ1" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" s="18" t="s">
+      <c r="BA1" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" s="19" t="s">
+      <c r="BB1" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" s="19" t="s">
+      <c r="BC1" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" s="20" t="s">
+      <c r="BD1" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" s="21" t="s">
+      <c r="BE1" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" s="21" t="s">
+      <c r="BF1" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" s="21" t="s">
+      <c r="BG1" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" s="19" t="s">
+      <c r="BH1" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" s="20" t="s">
+      <c r="BI1" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" s="20" t="s">
+      <c r="BJ1" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="BI1" s="20" t="s">
+      <c r="BK1" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="BJ1" s="20" t="s">
+      <c r="BL1" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="BK1" s="22" t="s">
+      <c r="BM1" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="BL1" s="19" t="s">
+      <c r="BN1" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="BM1" s="19" t="s">
+      <c r="BO1" s="19" t="s">
         <v>64</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="BF1">
+  <conditionalFormatting sqref="BH1">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"нет оплаты"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BL1">
+  <conditionalFormatting sqref="BN1">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"нет оплаты"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BM1">
+  <conditionalFormatting sqref="BO1">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"нет оплаты"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="6">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Выберите из списка" sqref="AC1" xr:uid="{70382B55-BE96-4823-81FF-957369CC4873}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Не верно" error="Выберете из списка" promptTitle="Выберете из списка" prompt=" " sqref="BK1" xr:uid="{20679E16-4980-458B-BDC1-D108A25CF6D6}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Не вверно" error="Выберете из списка" promptTitle="Выберете из списка" sqref="AV1" xr:uid="{3224214A-299B-44DE-9AD5-073442C1F250}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="не верно" error="выберете из списка" promptTitle="выберете из списка" prompt=" " sqref="BI1" xr:uid="{1E2CBE57-1EC3-427B-9F2E-26D87E097F78}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="не верно" error="Выберете из списка" promptTitle="Выберете из списка" prompt=" " sqref="BH1" xr:uid="{767A11C1-1131-44BA-94F0-536B21713D61}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Не верно!" error="Выберете из списка" promptTitle="Выберете из списка" prompt=" " sqref="BG1" xr:uid="{88411833-0C4D-4075-AF8F-4A4C61B7A6B7}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Выберите из списка" sqref="AE1" xr:uid="{70382B55-BE96-4823-81FF-957369CC4873}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Не верно" error="Выберете из списка" promptTitle="Выберете из списка" prompt=" " sqref="BM1" xr:uid="{20679E16-4980-458B-BDC1-D108A25CF6D6}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Не вверно" error="Выберете из списка" promptTitle="Выберете из списка" sqref="AX1" xr:uid="{3224214A-299B-44DE-9AD5-073442C1F250}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="не верно" error="выберете из списка" promptTitle="выберете из списка" prompt=" " sqref="BK1" xr:uid="{1E2CBE57-1EC3-427B-9F2E-26D87E097F78}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="не верно" error="Выберете из списка" promptTitle="Выберете из списка" prompt=" " sqref="BJ1" xr:uid="{767A11C1-1131-44BA-94F0-536B21713D61}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Не верно!" error="Выберете из списка" promptTitle="Выберете из списка" prompt=" " sqref="BI1" xr:uid="{88411833-0C4D-4075-AF8F-4A4C61B7A6B7}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
